--- a/Work/AtlasROIs112.xlsx
+++ b/Work/AtlasROIs112.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="190">
   <si>
     <t>AID_right</t>
   </si>
@@ -583,6 +583,10 @@
   </si>
   <si>
     <t>deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R_pallidum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -938,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1905,7 +1909,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>133</v>
+        <v>189</v>
       </c>
     </row>
     <row r="105" spans="1:4">
